--- a/IOTA Attendance Project/timesheet.xlsx
+++ b/IOTA Attendance Project/timesheet.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deves\Desktop\IOTA Attendance Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deves\Documents\GitHub\Pyton\IOTA Attendance Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84B82C8-66B1-4339-AF3B-8750FD0F698B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845EA4ED-3BCE-471D-8A44-0DF00843C1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="time" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -88,6 +89,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,10 +128,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,15 +413,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="5" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.76388888888888895</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.74305555555555558</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.76388888888888895</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.74305555555555558</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.74305555555555558</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.76388888888888895</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.76388888888888895</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.74305555555555558</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.74305555555555558</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.74305555555555558</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.74305555555555558</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8B59A2-040C-4DE7-BDAB-02BA8D006951}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -440,238 +814,238 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.84722222222222221</v>
+      <c r="B2" s="3">
+        <v>45664.458333333336</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45664.854166666664</v>
+      </c>
+      <c r="D2" s="3">
+        <v>45664.465277777781</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45664.847222222219</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.4236111111111111</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.76388888888888895</v>
+      <c r="B3" s="3">
+        <v>45664.416666666664</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45664.770833333336</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45664.423611111109</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45664.763888888891</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.38194444444444442</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.74305555555555558</v>
+      <c r="B4" s="3">
+        <v>45664.375</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45664.75</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45664.381944444445</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45664.743055555555</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.4861111111111111</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.61805555555555558</v>
+      <c r="B5" s="3">
+        <v>45664.479166666664</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45664.625</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45664.486111111109</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45664.618055555555</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.4236111111111111</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.76388888888888895</v>
+      <c r="B6" s="3">
+        <v>45664.416666666664</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45664.770833333336</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45664.423611111109</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45664.763888888891</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.74305555555555558</v>
+      <c r="B7" s="3">
+        <v>45664.458333333336</v>
+      </c>
+      <c r="C7" s="3">
+        <v>45664.75</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45664.465277777781</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45664.743055555555</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.38194444444444442</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.74305555555555558</v>
+      <c r="B8" s="3">
+        <v>45664.375</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45664.75</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45664.381944444445</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45664.743055555555</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.76388888888888895</v>
+      <c r="B9" s="3">
+        <v>45664.458333333336</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45664.770833333336</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45664.465277777781</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45664.763888888891</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.76388888888888895</v>
+      <c r="B10" s="3">
+        <v>45664.4375</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45664.770833333336</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45664.444444444445</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45664.763888888891</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.40277777777777773</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.74305555555555558</v>
+      <c r="B11" s="3">
+        <v>45664.395833333336</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45664.75</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45664.402777777781</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45664.743055555555</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.40277777777777773</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.74305555555555558</v>
+      <c r="B12" s="3">
+        <v>45664.395833333336</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45664.75</v>
+      </c>
+      <c r="D12" s="3">
+        <v>45664.402777777781</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45664.743055555555</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.40277777777777773</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.74305555555555558</v>
+      <c r="B13" s="3">
+        <v>45664.395833333336</v>
+      </c>
+      <c r="C13" s="3">
+        <v>45664.75</v>
+      </c>
+      <c r="D13" s="3">
+        <v>45664.402777777781</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45664.743055555555</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.84722222222222221</v>
+      <c r="B14" s="3">
+        <v>45664.458333333336</v>
+      </c>
+      <c r="C14" s="3">
+        <v>45664.854166666664</v>
+      </c>
+      <c r="D14" s="3">
+        <v>45664.465277777781</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45664.847222222219</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.38194444444444442</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.74305555555555558</v>
+      <c r="B15" s="3">
+        <v>45664.375</v>
+      </c>
+      <c r="C15" s="3">
+        <v>45664.75</v>
+      </c>
+      <c r="D15" s="3">
+        <v>45664.381944444445</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45664.743055555555</v>
       </c>
     </row>
   </sheetData>
